--- a/medicine/Psychotrope/Komodaru/Komodaru.xlsx
+++ b/medicine/Psychotrope/Komodaru/Komodaru.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Un komodaru (菰樽) ou sakadaru (酒樽) est un tonneau destiné au stockage du saké, l'alcool de riz traditionnel japonais, depuis plus de trois cent cinquante ans. Toujours réalisé en bois de cèdre, on en trouve de diverses tailles et capacités avec souvent une même taille de tonneau mais avec une capacité différente (réduite de moitié ou de trois quarts) grâce à un système de faux fond (agezoku) réduisant la hauteur interne) :
